--- a/loaded_influencer_data/karla.dtsm/karla.dtsm_video.xlsx
+++ b/loaded_influencer_data/karla.dtsm/karla.dtsm_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,25 +506,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7216032273869606149</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27300000</v>
+        <v>27400000</v>
       </c>
       <c r="C2" t="n">
         <v>1900000</v>
       </c>
       <c r="D2" t="n">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>127400</v>
+        <v>127600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.018681318681319</v>
+        <v>6.993430656934306</v>
       </c>
       <c r="I2" t="n">
-        <v>6.95970695970696</v>
+        <v>6.934306569343065</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05897435897435898</v>
+        <v>0.05912408759124087</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4656934306569344</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7206769053967420677</t>
         </is>
@@ -570,7 +570,7 @@
         <v>1500000</v>
       </c>
       <c r="D3" t="n">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14.43589423076923</v>
+        <v>14.435875</v>
       </c>
       <c r="I3" t="n">
         <v>14.42307692307692</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01281730769230769</v>
+        <v>0.01279807692307692</v>
       </c>
       <c r="L3" t="n">
         <v>0.5326923076923077</v>
@@ -610,7 +610,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7205276157833448709</t>
         </is>
@@ -619,10 +619,10 @@
         <v>7600000</v>
       </c>
       <c r="C4" t="n">
-        <v>882200</v>
+        <v>882600</v>
       </c>
       <c r="D4" t="n">
-        <v>6923</v>
+        <v>6918</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -636,16 +636,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.69898684210526</v>
+        <v>11.70418421052632</v>
       </c>
       <c r="I4" t="n">
-        <v>11.60789473684211</v>
+        <v>11.61315789473684</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09109210526315789</v>
+        <v>0.09102631578947368</v>
       </c>
       <c r="L4" t="n">
         <v>0.5618421052631579</v>
@@ -662,16 +662,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@karla.dtsm/video/7486911479074098454</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@karla.dtsm/video/7489526771700747542</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46600</v>
+        <v>23200</v>
       </c>
       <c r="C5" t="n">
-        <v>8244</v>
+        <v>2196</v>
       </c>
       <c r="D5" t="n">
         <v>17</v>
@@ -680,2281 +680,2335 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>IG: Karla.dtsm 🎀 || alle Märchen sind gelogen… 💋 #fyp #girlssupportgirls #love #travel</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9.538793103448276</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.465517241379311</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07327586206896552</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2198275862068966</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@karla.dtsm/video/7489155058068720918</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61900</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9788</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>157</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>IG: karla.dtsm 🎀 || alles zum London-Trip in der Story💋 #fyp #girlssupportgirls #travel #makeup #skincare #event</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>15.87883683360259</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.81260096930533</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.06623586429725364</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2536348949919224</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@karla.dtsm/video/7488367354527665430</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>30400</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4433</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>127</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>IG: karla.dtsm 🎀 —&gt; nehm euch mit auf meinem Trip!! ✈️ #fyp #makeup #travel #girlssupportgirls #london</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>14.67763157894737</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.58223684210526</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.09539473684210525</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.4177631578947368</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@karla.dtsm/video/7488005413565189398</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87800</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>264</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>IG: karla.dtsm 🎀 || my love❤️ #fyp #couple #trending #couplegoals #love #boyfriend #girls</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>13.69362186788155</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.66742596810934</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02619589977220957</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3006833712984054</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@karla.dtsm/video/7487638458417122582</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>49400</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5341</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>384</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Antwort auf @Anna🪼 IG: Karla.dtsm 🎀 || Makeup Tutorial💋 #fyp #makeup #girlssupportgirls #love #girls #grwm</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10.86234817813765</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.81174089068826</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.05060728744939271</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7773279352226721</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@karla.dtsm/video/7486911479074098454</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>201600</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23600</v>
+      </c>
+      <c r="D10" t="n">
+        <v>37</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1088</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Das Lied gibt soo sommer vibes ☀️ || Soundpromo #fyp #girlssupportgirls #bestfriend #love #spreadlove</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>17.7274678111588</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17.69098712446352</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.03648068669527897</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.6051502145922747</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H10" t="n">
+        <v>11.72470238095238</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.70634920634921</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0183531746031746</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5396825396825398</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7486519073770114326</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B11" t="n">
         <v>68200</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C11" t="n">
         <v>10400</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D11" t="n">
         <v>28</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>379</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>IG: karla.dtsm 🎀 || Hasse es wenn jemand das sagt❤️ #fyp #makeup #grwm #girlssupportgirls #skincare #love</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H11" t="n">
         <v>15.29032258064516</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I11" t="n">
         <v>15.24926686217009</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.04105571847507331</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L11" t="n">
         <v>0.5557184750733137</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7486174885903912214</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B12" t="n">
         <v>34000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C12" t="n">
         <v>4926</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D12" t="n">
         <v>25</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>107</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>IG: karla.dtsm 🎀 || Wie es einfach auf mein Oberteil tropft💔💔 #fyp #grwm #makeup #girlssupportgirls #fail #love</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H12" t="n">
         <v>14.56176470588235</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I12" t="n">
         <v>14.48823529411765</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.07352941176470588</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L12" t="n">
         <v>0.3147058823529412</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7484308234208136470</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B13" t="n">
         <v>56800</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C13" t="n">
         <v>7073</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D13" t="n">
         <v>55</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>166</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>IG: karla.dtsm 🎀 || welcome to my account!!💋 #fyp #girlssupportgirls #love #makeup #skincare #girls</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H13" t="n">
         <v>12.54929577464789</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I13" t="n">
         <v>12.45246478873239</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.09683098591549295</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L13" t="n">
         <v>0.2922535211267606</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7483928705648217366</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B14" t="n">
         <v>53400</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C14" t="n">
         <v>5887</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D14" t="n">
         <v>16</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>113</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>IG: Karla.dtsm 💋 || Love my girls💓@Maggy 💕 @emily @franzi #fyp #girlssupportgirls #love #girlhood</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H14" t="n">
         <v>11.05430711610487</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I14" t="n">
         <v>11.02434456928839</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.0299625468164794</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L14" t="n">
         <v>0.2116104868913858</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7483599582132227350</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B15" t="n">
         <v>223900</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C15" t="n">
         <v>36600</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D15" t="n">
         <v>781</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>1154</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>IG: Karla.dtsm 💋 || Lieb euch🎀 #fyp #girls #girlssupportgirls #love #friends #girlhood #makeup #viral</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H15" t="n">
         <v>16.69539973202323</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I15" t="n">
         <v>16.34658329611434</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.3488164359088879</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L15" t="n">
         <v>0.5154086645824029</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7483186346832432406</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B16" t="n">
         <v>110300</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C16" t="n">
         <v>7596</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D16" t="n">
         <v>40</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>286</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>IG: karla.dtsm 💋 || GRWM fürn Knast💓 #fyp #grwm #girlssupportgirls #girls #love #makeup #storytime</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H16" t="n">
         <v>6.922937443336355</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I16" t="n">
         <v>6.886672710788758</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.03626473254759746</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L16" t="n">
         <v>0.2592928377153219</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7482859285890862358</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B17" t="n">
         <v>147400</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C17" t="n">
         <v>13400</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D17" t="n">
         <v>84</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>177</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>IG: Karla.dtsm 😔❤️ || was findet ihr besser? 💓 #fyp #hairstyle #blonde #love #makeup #girlssupportgirls #girls</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H17" t="n">
         <v>9.147896879240163</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I17" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.05698778833107192</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L17" t="n">
         <v>0.1200814111261872</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7482763359734058262</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B18" t="n">
         <v>332300</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C18" t="n">
         <v>30800</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D18" t="n">
         <v>81</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>907</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>IG: karla.dtsm 💋 || Monday grwm😣💓 #fyp #grwm #makeup #love #girls #girlssupportgirls #viral</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H18" t="n">
         <v>9.293108636773999</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I18" t="n">
         <v>9.268733072524828</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.02437556424917244</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L18" t="n">
         <v>0.2729461330123383</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7482474376672070934</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B19" t="n">
         <v>99800</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C19" t="n">
         <v>5996</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D19" t="n">
         <v>15</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>254</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Insta: Karla.dtsm 🎀 || kleiner fail oder was sagt ihr??🥹💋 #fyp #challenge #fail #makeup #trend #skincare</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H19" t="n">
         <v>6.023046092184368</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I19" t="n">
         <v>6.008016032064129</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.01503006012024048</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L19" t="n">
         <v>0.2545090180360721</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7481718972820344086</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B20" t="n">
         <v>100000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C20" t="n">
         <v>14000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D20" t="n">
         <v>80</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>567</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>insta: karla.dtsm 💓 || NUR drogerieprodukte benutzen challenge!! 😛 #fyp #makeup #elfcosmetics</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H20" t="n">
         <v>14.08</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I20" t="n">
         <v>14</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.08</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L20" t="n">
         <v>0.5669999999999999</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7481348747646061846</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B21" t="n">
         <v>48200</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C21" t="n">
         <v>5697</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D21" t="n">
         <v>41</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>185</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>insta: karla.dtsm 💋 || Hoffe ihr hattet einen tollen Tag mausis💓 #fyp #grwm #makeup #skincare #love #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H21" t="n">
         <v>11.9045643153527</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I21" t="n">
         <v>11.8195020746888</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.08506224066390042</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L21" t="n">
         <v>0.3838174273858921</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7480968635016645910</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B22" t="n">
         <v>39500</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C22" t="n">
         <v>4097</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D22" t="n">
         <v>41</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>285</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Anzeige | OMG ich bin so gehypt!! - Wie findet ihr das Produkt?🥹💓 @Garnierdeutschland #fyp</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H22" t="n">
         <v>10.47594936708861</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I22" t="n">
         <v>10.37215189873418</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.1037974683544304</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L22" t="n">
         <v>0.7215189873417721</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7480585897579269398</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B23" t="n">
         <v>475900</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C23" t="n">
         <v>47800</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D23" t="n">
         <v>202</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>3337</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Anzeige | OMG ich bin so gehypt!! - Wie findet ihr das Produkt?🥹💓 @Garnierdeutschland #fyp</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H23" t="n">
         <v>10.08657280941374</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I23" t="n">
         <v>10.04412691741963</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.04244589199411641</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L23" t="n">
         <v>0.7011977306156756</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7480226563347205398</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B24" t="n">
         <v>359700</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C24" t="n">
         <v>43700</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D24" t="n">
         <v>122</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>1345</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>IG: Karla.dtsm 🎀 || Wie war euer Montag?💋 #fyp #girls #grwm #acne #selflovejourney #makeup #skincare #viral</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H24" t="n">
         <v>12.18293021962747</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I24" t="n">
         <v>12.14901306644426</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.03391715318320823</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L24" t="n">
         <v>0.3739227133722546</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7479780898343226646</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B25" t="n">
         <v>65200</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C25" t="n">
         <v>7454</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D25" t="n">
         <v>43</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>235</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>IG: Karla.dtsm 🎀 || wie findet ihr meinen neuen Tisch?🥹 #fyp #vanity #girls #makeup #love #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H25" t="n">
         <v>11.49846625766871</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I25" t="n">
         <v>11.43251533742331</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.06595092024539878</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L25" t="n">
         <v>0.3604294478527608</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7478043811579448598</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>68200</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>7939</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D26" t="n">
         <v>29</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>171</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>IG’ karla.dtsm 🎀 || a day in my life ☀️ #fyp #vlog #blonde #hair #adayinmylife #viral #grwm #girlssupportgirls #girls</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>11.68328445747801</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I26" t="n">
         <v>11.64076246334311</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.04252199413489736</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L26" t="n">
         <v>0.250733137829912</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7476526465295617302</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B27" t="n">
         <v>79800</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C27" t="n">
         <v>6400</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D27" t="n">
         <v>20</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>96</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>IG’ karla.dtsm 🎀 || getting complimented by pretty girls&gt;&gt; 💋🥹 #fyp #girlssupportgirls #love #viral #makeup</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H27" t="n">
         <v>8.045112781954886</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I27" t="n">
         <v>8.020050125313283</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.02506265664160401</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L27" t="n">
         <v>0.1203007518796992</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7476193090261372182</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B28" t="n">
         <v>95300</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C28" t="n">
         <v>6128</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D28" t="n">
         <v>24</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>516</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Anzeige | Es gibt bunte Concealer??!! 💜💚 Liebe die neuen Löscher Shades von @maybelline_de 😍 #makeup</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H28" t="n">
         <v>6.455403987408184</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I28" t="n">
         <v>6.4302203567681</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.02518363064008395</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L28" t="n">
         <v>0.5414480587618048</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7475797827604532502</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B29" t="n">
         <v>268200</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C29" t="n">
         <v>22700</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D29" t="n">
         <v>57</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>585</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>IG’ Karla.dtsm || get ready w/ me💓 #fyp #grwm #makeup #mottowoche #costume #fasching</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H29" t="n">
         <v>8.485085756897838</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I29" t="n">
         <v>8.463832960477257</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.02125279642058165</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L29" t="n">
         <v>0.2181208053691275</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7475719006679321878</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B30" t="n">
         <v>144400</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C30" t="n">
         <v>12900</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D30" t="n">
         <v>38</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>238</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>IG’ Karla.dtsm 🪩 || let‘s talk about it💋 #fyp #blonde #newhair #makeup #girls #love #viral #acne #skincare</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H30" t="n">
         <v>8.959833795013852</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I30" t="n">
         <v>8.933518005540165</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.02631578947368421</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L30" t="n">
         <v>0.164819944598338</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7475361671209356566</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B31" t="n">
         <v>274700</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C31" t="n">
         <v>30200</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D31" t="n">
         <v>279</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>678</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>insta: karla.dtsm 🎀 || ergebnis von meinen haaren!! 💇‍♀️ #fyp #newhair #makeup #grwm #love #girls #viral</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H31" t="n">
         <v>11.09537677466327</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I31" t="n">
         <v>10.99381143065162</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.1015653440116491</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L31" t="n">
         <v>0.2468147069530397</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7475045223953861910</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B32" t="n">
         <v>274100</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C32" t="n">
         <v>17900</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D32" t="n">
         <v>97</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>607</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>get ready w/ me🙊💋 || IG‘ karla.dtsm 🪩 #fyp #costume #makeup #motto #costume #love #couple #girls #grwm</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H32" t="n">
         <v>6.565851878876322</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I32" t="n">
         <v>6.530463334549435</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.035388544326888</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L32" t="n">
         <v>0.2214520248084641</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7474694800709651734</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B33" t="n">
         <v>350500</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C33" t="n">
         <v>41000</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D33" t="n">
         <v>43</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>964</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>wer erkennt unser kostüm?🙊💓 || IG‘ Karla.dtsm 🎀 #fyp #fasching #karneval #costume #couple #love #makeup</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H33" t="n">
         <v>11.70984308131241</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I33" t="n">
         <v>11.69757489300999</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.01226818830242511</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L33" t="n">
         <v>0.2750356633380884</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7473925696960597270</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B34" t="n">
         <v>56900</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C34" t="n">
         <v>4891</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>152</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>GRWM || Ig’ Karla.dtsm 💋 #fyp #grwm #love #makeup #akne #acne #girls</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H34" t="n">
         <v>8.653778558875219</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I34" t="n">
         <v>8.595782073813709</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.05799648506151142</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L34" t="n">
         <v>0.2671353251318102</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7473589923128380694</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B35" t="n">
         <v>570900</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C35" t="n">
         <v>48400</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D35" t="n">
         <v>171</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>3019</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>get ready w/ me🎀 IG‘ Karla.dtsm 💋 #fyp #love #grwm #makeup #girls #girlssupportgirls #viral #skincare #acne</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H35" t="n">
         <v>8.507794710106849</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I35" t="n">
         <v>8.477842003853564</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.02995270625328429</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L35" t="n">
         <v>0.5288141530916097</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7472725147435158806</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B36" t="n">
         <v>10700000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C36" t="n">
         <v>7162</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D36" t="n">
         <v>31</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>872</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Anzeige | probiert unbedingt diese neue fructis keratin sleek reihe von @Garnierdeutschland aus, wenn ihr auch den glass hair trend nachmachen wollt</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H36" t="n">
         <v>0.06722429906542056</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I36" t="n">
         <v>0.06693457943925234</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.0002897196261682243</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L36" t="n">
         <v>0.008149532710280374</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7471671076276161814</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B37" t="n">
         <v>51200</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C37" t="n">
         <v>5404</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D37" t="n">
         <v>24</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>86</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>BOOM BOOM BOOM 💋 || IG’ Karla.dtsm #fyp #love #boyfriend #couple #valentinesday #girls</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H37" t="n">
         <v>10.6015625</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I37" t="n">
         <v>10.5546875</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.046875</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L37" t="n">
         <v>0.16796875</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7470978415433092374</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B38" t="n">
         <v>46200</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C38" t="n">
         <v>4008</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D38" t="n">
         <v>35</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>134</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>hab vergessen das hochzuladen🙈 || IG’ Karla.dtsm 💓 #fyp #makeup #grwm #love #beauty #girls</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H38" t="n">
         <v>8.75108225108225</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I38" t="n">
         <v>8.675324675324674</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.07575757575757576</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L38" t="n">
         <v>0.29004329004329</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7470591449621384470</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B39" t="n">
         <v>81400</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C39" t="n">
         <v>10800</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D39" t="n">
         <v>30</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>286</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>🤧🤧</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H39" t="n">
         <v>13.3046683046683</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I39" t="n">
         <v>13.26781326781327</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.03685503685503685</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L39" t="n">
         <v>0.3513513513513514</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7469358401055673622</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B40" t="n">
         <v>69500</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C40" t="n">
         <v>9112</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D40" t="n">
         <v>30</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>359</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>schminktisch aufräumen… 🫧 || IG‘ Karla.dtsm 🎀 #fyp #makeup #vanity #love #skincare #love #girls</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H40" t="n">
         <v>13.15395683453237</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I40" t="n">
         <v>13.11079136690647</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.04316546762589928</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L40" t="n">
         <v>0.516546762589928</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-09</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7469101707583098134</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B41" t="n">
         <v>280500</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C41" t="n">
         <v>17300</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D41" t="n">
         <v>85</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>1160</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>schnelles GRWM 🎀 || IG’ Karla.dtsm 🪩 #fyp #grwm #girls #makeup #love #beauty #girlssupportgirls #heatlesscurls</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H41" t="n">
         <v>6.197860962566845</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I41" t="n">
         <v>6.167557932263815</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.0303030303030303</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L41" t="n">
         <v>0.4135472370766488</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-09</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7468028515011579158</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B42" t="n">
         <v>135800</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C42" t="n">
         <v>18100</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D42" t="n">
         <v>98</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>635</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>habt ihr lust auf längere GRWMs??💓🥹 || IG‘ Karla.dtsm 🪩 #fyp #grwm #girlssupportgirls #makeup #love #girls</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H42" t="n">
         <v>13.40058910162003</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I42" t="n">
         <v>13.32842415316642</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.07216494845360824</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L42" t="n">
         <v>0.46759941089838</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7467237107984076054</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B43" t="n">
         <v>80700</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C43" t="n">
         <v>8854</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D43" t="n">
         <v>47</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>614</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>folgt mir auf IG’ Karla.dtsm für mehr!!🎀 #fyp #fashion #girlssupportgirls #stockholm #love #viral #acne #style</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H43" t="n">
         <v>11.02973977695167</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I43" t="n">
         <v>10.97149938042131</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.05824039653035935</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L43" t="n">
         <v>0.7608426270136307</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7465773499555024130</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B44" t="n">
         <v>149400</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C44" t="n">
         <v>20600</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D44" t="n">
         <v>62</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>644</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>here for the girls👸🎀 || IG’ Karla.dtsm 💋 #fyp #girlssupportgirls #acne #makeup #beauty #girls</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H44" t="n">
         <v>13.82998661311914</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I44" t="n">
         <v>13.78848728246319</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.04149933065595716</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L44" t="n">
         <v>0.431057563587684</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7465357391073119510</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B45" t="n">
         <v>99600</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C45" t="n">
         <v>13700</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D45" t="n">
         <v>61</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>514</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>habt ihr auch französisch? 🙈💓 || IG’ Karla.dtsm #fyp #girls #acne #school #grwm #makeup #beauty</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H45" t="n">
         <v>13.81626506024097</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I45" t="n">
         <v>13.75502008032128</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.06124497991967871</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L45" t="n">
         <v>0.5160642570281124</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7464990552514170134</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B46" t="n">
         <v>96600</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C46" t="n">
         <v>11700</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D46" t="n">
         <v>50</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>299</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>I’m a sucker for this sound btw🦁 || IG’ Karla.dtsm #fyp</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H46" t="n">
         <v>12.16356107660456</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I46" t="n">
         <v>12.11180124223602</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.05175983436853002</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L46" t="n">
         <v>0.3095238095238095</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7464629415910100246</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B47" t="n">
         <v>119400</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C47" t="n">
         <v>14600</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D47" t="n">
         <v>90</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>492</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>wie sehr ihr das?🎀 || IG’ Karla.dtsm 💓 #fyp #acne #girlssupportgirls #girls #love #skincare #makeup #beauty</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H47" t="n">
         <v>12.30318257956449</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I47" t="n">
         <v>12.22780569514238</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.07537688442211055</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L47" t="n">
         <v>0.4120603015075377</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7463543571325422870</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B48" t="n">
         <v>89600</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C48" t="n">
         <v>11500</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D48" t="n">
         <v>35</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>674</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>What’s in my schoolbag 💓 / Anzeige #yepoda #kbeauty #skincareroutine
 #koreanskincare #whatsinmybag</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H48" t="n">
         <v>12.87388392857143</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I48" t="n">
         <v>12.83482142857143</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.0390625</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L48" t="n">
         <v>0.7522321428571429</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-25</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7462816017132113174</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B49" t="n">
         <v>1100000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C49" t="n">
         <v>129699</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D49" t="n">
         <v>387</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>11000</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>scandi makeup on acne skin🎀🥹 || Ig’ Karla.dtsm #fyp #stockholm #stockholmstyle #love #makeup #grwm</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H49" t="n">
         <v>11.826</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I49" t="n">
         <v>11.79081818181818</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.03518181818181818</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L49" t="n">
         <v>1</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7462434235056475414</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B50" t="n">
         <v>60100</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C50" t="n">
         <v>5902</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D50" t="n">
         <v>28</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>418</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>scandi makeup on acne skin🎀🥹 || Ig’ Karla.dtsm #fyp #stockholm #stockholmstyle #love #makeup #grwm</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H50" t="n">
         <v>9.866888519134775</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I50" t="n">
         <v>9.820299500831947</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.04658901830282862</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L50" t="n">
         <v>0.6955074875207986</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karla.dtsm/video/7462025848212704534</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B51" t="n">
         <v>72000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C51" t="n">
         <v>9327</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D51" t="n">
         <v>39</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>288</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>ich hasse Montage😭 || IG’ Karla.dtsm 🎀 #fyp #acne #grwm #girls #love #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H51" t="n">
         <v>13.00833333333333</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I51" t="n">
         <v>12.95416666666667</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.05416666666666666</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L51" t="n">
         <v>0.4</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-01-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@karla.dtsm/video/7460557253028908320</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>139400</v>
-      </c>
-      <c r="C47" t="n">
-        <v>12100</v>
-      </c>
-      <c r="D47" t="n">
-        <v>39</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1673</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>perfekte cloud skin mit dem neuen Halo Glow Powder Filter von @e.l.f. Cosmetics  ☁️? Here you go!💋 || Anzeige</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8.70803443328551</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8.680057388809184</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.02797704447632712</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.200143472022956</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@karla.dtsm/video/7460196116408093974</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>608400</v>
-      </c>
-      <c r="C48" t="n">
-        <v>60500</v>
-      </c>
-      <c r="D48" t="n">
-        <v>261</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2283</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>pretty girls🥹🎀 || IG’ Karla.dtsm 💋 #fyp #acne #girlssupportgirls #girls #love</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9.987015121630506</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9.944115713346482</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.04289940828402367</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.3752465483234714</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@karla.dtsm/video/7460194698326543638</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>32700000</v>
-      </c>
-      <c r="C49" t="n">
-        <v>38800</v>
-      </c>
-      <c r="D49" t="n">
-        <v>271</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3069</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="n">
-        <v>0.1194831804281346</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.1186544342507645</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.0008287461773700306</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.009385321100917431</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@karla.dtsm/video/7459815378810686742</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>121400</v>
-      </c>
-      <c r="C50" t="n">
-        <v>12800</v>
-      </c>
-      <c r="D50" t="n">
-        <v>46</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>520</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>g7x mark iii || IG: karla.dtsm 💋#fyp #g7xmarkiii #love #yeat #viral #grwm #girlssupportgirls</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10.58154859967051</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10.54365733113674</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.03789126853377265</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.42833607907743</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-01-15</t>
         </is>
       </c>
     </row>
